--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_205__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_205__Reeval_Sobol_Modell_1.2.xlsx
@@ -6190,10 +6190,10 @@
                   <c:v>98.73432159423828</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.359248012304306</c:v>
+                  <c:v>0.3592436015605927</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93.66087341308594</c:v>
+                  <c:v>93.66086578369141</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>76.15194702148438</c:v>
@@ -6274,13 +6274,13 @@
                   <c:v>49.9370002746582</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>88.22845458984375</c:v>
+                  <c:v>88.22844696044922</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>50.27138900756836</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>32.31916427612305</c:v>
+                  <c:v>32.31916046142578</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0.1224060878157616</c:v>
@@ -6358,13 +6358,13 @@
                   <c:v>96.26191711425781</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15.18350219726562</c:v>
+                  <c:v>15.18350124359131</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-0.03423425555229187</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.113148331642151</c:v>
+                  <c:v>-1.113145351409912</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>80.95226287841797</c:v>
@@ -6409,10 +6409,10 @@
                   <c:v>91.45045471191406</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97.90113830566406</c:v>
+                  <c:v>97.90110778808594</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.3776850700378418</c:v>
+                  <c:v>0.3776821196079254</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>93.98221588134766</c:v>
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.359248012304306</v>
+        <v>0.3592436015605927</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>93.66087341308594</v>
+        <v>93.66086578369141</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>88.22845458984375</v>
+        <v>88.22844696044922</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>32.31916427612305</v>
+        <v>32.31916046142578</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>15.18350219726562</v>
+        <v>15.18350124359131</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-1.113148331642151</v>
+        <v>-1.113145351409912</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>96.6401</v>
       </c>
       <c r="F99">
-        <v>97.90113830566406</v>
+        <v>97.90110778808594</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0.3776850700378418</v>
+        <v>0.3776821196079254</v>
       </c>
     </row>
     <row r="101" spans="1:6">
